--- a/xlsx/金字塔_intext.xlsx
+++ b/xlsx/金字塔_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>建築學</t>
+    <t>建筑学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%90%E9%AB%94</t>
   </si>
   <si>
-    <t>錐體</t>
+    <t>锥体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E7%89%A9</t>
   </si>
   <si>
-    <t>建築物</t>
+    <t>建筑物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E9%87%91%E5%AD%97%E5%A1%94</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%A4%9A%E9%82%8A%E5%BD%A2</t>
   </si>
   <si>
-    <t>正多邊形</t>
+    <t>正多边形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E5%BD%A2</t>
   </si>
   <si>
-    <t>多邊形</t>
+    <t>多边形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%BD%A2</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%B5%AB%E8%88%92%E7%88%BE</t>
   </si>
   <si>
-    <t>代赫舒爾</t>
+    <t>代赫舒尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>紅金字塔</t>
+    <t>红金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%96%A9</t>
   </si>
   <si>
-    <t>吉薩</t>
+    <t>吉萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%A4%AB%E9%87%91%E5%AD%97%E5%A1%94</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%9F%83%E5%8F%8A</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B5%E5%AF%A2</t>
   </si>
   <si>
-    <t>陵寢</t>
+    <t>陵寝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%96%AF%E5%A1%94%E5%B7%B4</t>
   </si>
   <si>
-    <t>馬斯塔巴</t>
+    <t>马斯塔巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E5%A1%9E%E7%88%BE%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>左塞爾金字塔</t>
+    <t>左塞尔金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%80%81</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中古世紀</t>
+    <t>中古世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%BE%85%E5%9F%83</t>
   </si>
   <si>
-    <t>麥羅埃</t>
+    <t>麦罗埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%88%88%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾戈斯</t>
+    <t>阿尔戈斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>愛琴文明</t>
+    <t>爱琴文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>羅馬市</t>
+    <t>罗马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BF%9D%E7%A6%84%E9%97%A8</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%81%B0%E8%8F%AF</t>
   </si>
   <si>
-    <t>石灰華</t>
+    <t>石灰华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B3%A5</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AB%BE%E5%A5%87%E6%8F%90%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>特諾奇提特蘭</t>
+    <t>特诺奇提特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%A5%A7%E8%92%82%E7%93%A6%E5%9D%8E</t>
   </si>
   <si>
-    <t>特奧蒂瓦坎</t>
+    <t>特奥蒂瓦坎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pyramid_of_the_Moon</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>太陽金字塔</t>
+    <t>太阳金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%9C%8D%E5%9F%BA%E4%BA%9E%E9%81%BA%E5%9D%80</t>
   </si>
   <si>
-    <t>卡霍基亞遺址</t>
+    <t>卡霍基亚遗址</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monks_Mound</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%A3%BD%E7%8E%8B</t>
   </si>
   <si>
-    <t>長壽王</t>
+    <t>长寿王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%87%E8%BB%8D%E5%86%A2</t>
   </si>
   <si>
-    <t>將軍冢</t>
+    <t>将军冢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%87%91%E5%AD%97%E5%A1%94</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B4%97%E5%B2%A9</t>
   </si>
   <si>
-    <t>花崗岩</t>
+    <t>花岗岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E8%B4%BE%E6%AD%A6%E5%B0%94</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
+    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>爪哇島</t>
+    <t>爪哇岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B2%9B%E6%B0%91%E6%97%8F</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E6%B5%AE%E5%B1%A0</t>
   </si>
   <si>
-    <t>婆羅浮屠</t>
+    <t>婆罗浮屠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%85%B0%E5%B7%B4%E5%8D%97</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%AE%AE%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>羅浮宮金字塔</t>
+    <t>罗浮宫金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E9%87%91%E5%AD%97%E5%A1%94</t>
@@ -677,25 +677,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E8%9C%80%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>樂蜀酒店</t>
+    <t>乐蜀酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%AE%AE</t>
   </si>
   <si>
-    <t>羅浮宮</t>
+    <t>罗浮宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%81%BF%E9%8A%98</t>
   </si>
   <si>
-    <t>貝聿銘</t>
+    <t>贝聿铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E4%BA%AC%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>柳京飯店</t>
+    <t>柳京饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8D%97%E5%B8%82</t>
@@ -743,25 +743,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E8%82%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>七股區</t>
+    <t>七股区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%B9%BD%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>台灣鹽博物館</t>
+    <t>台湾盐博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pyramid_Arena</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%8B%89%E9%82%A3</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%9C%8B%E9%9A%9B%E5%B1%95%E7%A4%BA%E5%A0%B4</t>
   </si>
   <si>
-    <t>東京國際展示場</t>
+    <t>东京国际展示场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B1%E9%94%A5</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%B0%E7%91%AA%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>瑰瑪金字塔</t>
+    <t>瑰玛金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%AD%97%E5%BD%A2%E7%A5%9E%E5%A1%94</t>
@@ -869,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/金字塔_intext.xlsx
+++ b/xlsx/金字塔_intext.xlsx
@@ -29,7 +29,7 @@
     <t>金字塔 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_管理_金字塔</t>
+    <t>体育运动_体育运动_古埃及_金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%AD%B8</t>
